--- a/backend/full-final.xlsx
+++ b/backend/full-final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ritik_rhkholi\Desktop\pppppp\internshala\certificate-generation-ans-verification-system\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF2973A9-DA30-444B-89E2-0CB5009CBAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A500E712-E456-4923-8173-7AC7D810312F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BE6F95FC-9B2C-46D8-9EC9-5311A8583CFC}"/>
   </bookViews>
@@ -25,96 +25,540 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="178">
   <si>
     <t>studentName</t>
   </si>
   <si>
-    <t>internshipDomain</t>
-  </si>
-  <si>
     <t>startDate</t>
   </si>
   <si>
     <t>endDate</t>
   </si>
   <si>
-    <t>Ramesh</t>
-  </si>
-  <si>
-    <t>web development</t>
-  </si>
-  <si>
-    <t>Ritik</t>
-  </si>
-  <si>
-    <t>Software development</t>
-  </si>
-  <si>
-    <t>vivek</t>
-  </si>
-  <si>
-    <t>APP development</t>
-  </si>
-  <si>
     <t>certificateId</t>
   </si>
   <si>
-    <t>CERT123</t>
-  </si>
-  <si>
-    <t>CERT234</t>
-  </si>
-  <si>
-    <t>CERT450</t>
-  </si>
-  <si>
-    <t>CERT124</t>
-  </si>
-  <si>
-    <t>Web Development</t>
-  </si>
-  <si>
-    <t>CERT125</t>
-  </si>
-  <si>
-    <t>CERT126</t>
-  </si>
-  <si>
-    <t>CERT127</t>
-  </si>
-  <si>
-    <t>CERT128</t>
-  </si>
-  <si>
-    <t>CERT129</t>
-  </si>
-  <si>
-    <t>CERT130</t>
-  </si>
-  <si>
-    <t>CERT131</t>
-  </si>
-  <si>
-    <t>CERT132</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Shubam</t>
-  </si>
-  <si>
-    <t>shubam</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>CERT456</t>
-  </si>
-  <si>
-    <t>khushal</t>
+    <t>Abhinav</t>
+  </si>
+  <si>
+    <t>Pratyaksh Saluja</t>
+  </si>
+  <si>
+    <t>Shruti Keshri</t>
+  </si>
+  <si>
+    <t>Aakarsh Goyal</t>
+  </si>
+  <si>
+    <t>Vaishnavi singh</t>
+  </si>
+  <si>
+    <t>Nishtha Jain</t>
+  </si>
+  <si>
+    <t>Aakash Gulia</t>
+  </si>
+  <si>
+    <t>Arpit Pandey</t>
+  </si>
+  <si>
+    <t>Laksh Sharda</t>
+  </si>
+  <si>
+    <t>Mehul Vig</t>
+  </si>
+  <si>
+    <t>Prathmesh Ojha</t>
+  </si>
+  <si>
+    <t>Kavya Goswami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaurav Ghosh </t>
+  </si>
+  <si>
+    <t>Sampurn Gupta</t>
+  </si>
+  <si>
+    <t>Drishti</t>
+  </si>
+  <si>
+    <t>NIMISH KATARA</t>
+  </si>
+  <si>
+    <t>Mahir Yadav</t>
+  </si>
+  <si>
+    <t>Aaryan Masson</t>
+  </si>
+  <si>
+    <t>Rishit Abhilash</t>
+  </si>
+  <si>
+    <t>Jatin Kumar Phogat</t>
+  </si>
+  <si>
+    <t>Gurvinder Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navya jain </t>
+  </si>
+  <si>
+    <t>Pryanshu Kumar</t>
+  </si>
+  <si>
+    <t>Saanvee Sharma</t>
+  </si>
+  <si>
+    <t>Vinit Yaduvanshi</t>
+  </si>
+  <si>
+    <t>Suhani Aggarwal</t>
+  </si>
+  <si>
+    <t>Akash Choudhary</t>
+  </si>
+  <si>
+    <t>Manya</t>
+  </si>
+  <si>
+    <t>Aryyan Ahlawat</t>
+  </si>
+  <si>
+    <t>Tejasvir singh khari</t>
+  </si>
+  <si>
+    <t>Yaksh Rohilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anoushka Srivastava </t>
+  </si>
+  <si>
+    <t>Suraj</t>
+  </si>
+  <si>
+    <t>Akshita Jain</t>
+  </si>
+  <si>
+    <t>Vanshik Soni</t>
+  </si>
+  <si>
+    <t>Sourav Singh</t>
+  </si>
+  <si>
+    <t>Sayantan</t>
+  </si>
+  <si>
+    <t>Shaleen Chordia</t>
+  </si>
+  <si>
+    <t>Yash Yadav</t>
+  </si>
+  <si>
+    <t>D M V S V Karthik Jayanthi</t>
+  </si>
+  <si>
+    <t>Rohit Rathi</t>
+  </si>
+  <si>
+    <t>Raghvendra Singh Chouhan</t>
+  </si>
+  <si>
+    <t>Saksham Pandla</t>
+  </si>
+  <si>
+    <t>Sneha Jain</t>
+  </si>
+  <si>
+    <t>Ishita Verma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhinav Tripathi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoorva Srivastava </t>
+  </si>
+  <si>
+    <t>Mayank Gupta</t>
+  </si>
+  <si>
+    <t>Dishita</t>
+  </si>
+  <si>
+    <t>Kartik Mehtani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anurag Anand </t>
+  </si>
+  <si>
+    <t>Pushkar Yadav</t>
+  </si>
+  <si>
+    <t>Madhab padhi</t>
+  </si>
+  <si>
+    <t>Ridit Jain</t>
+  </si>
+  <si>
+    <t>Ayush chauhan</t>
+  </si>
+  <si>
+    <t>Nipun Rajput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krish rathi </t>
+  </si>
+  <si>
+    <t>abhinav.yadav.22cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>pratyakshsirsa@gmail.com</t>
+  </si>
+  <si>
+    <t>shruti.keshri.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>aakarsh.goyal.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>tushar.gupta.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>nishtha.jain.22cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>aakash.gulia.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>arp779921@gmail.com</t>
+  </si>
+  <si>
+    <t>laksh.sharda.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>mehul.vig.24cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>prathmesh.ojha.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>kavya.goswami.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>gaurav.ghosh.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>sampurn.gupta.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>drishti.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>nimish.katara.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>mahir.yadav.24cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>aaryan.masson.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>rishit.abhilash.22cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>jatinkumar.phogat.22cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>gurvinder.singh.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>navya.jain.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>pryanshu.22cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>saanvee.sharma.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>vinit.yaduvanshi.22cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>suhani.aggarwal.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>akash.choudhary.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>manya.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>aryyan.ahlawat@gmail.com</t>
+  </si>
+  <si>
+    <t>tejasvirsingh.khari.24cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>yaksh.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>anoushka.srivastava.21cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>suraj.22cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>akshita.jain.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>vanshik.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>sourav.singh.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>sayantan.22cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>shaleen.chordia.22cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>yash.yadav@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>dmvsvkarthik.jayanthi.21cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>rohit.rathi.22cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>raghvendrasingh.chouhan.22cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>sakshampandla@gmail.com</t>
+  </si>
+  <si>
+    <t>sneha.jain.personal@gmail.com</t>
+  </si>
+  <si>
+    <t>ishita.verma.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>abhinav.tripathi.23ece@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>apoorva.srivastava.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>mayank.gupta.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>dishita.tirthani.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>kartik.mehtani.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>anurag.anand.22cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>pushkar.yadav.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>madhab.padhi.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>ridit.jain.21cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>ayush.chuahan.22cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>nipun.rajput.21cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>krish.rathi.23cse@bmu.edu.in</t>
+  </si>
+  <si>
+    <t>CERT001</t>
+  </si>
+  <si>
+    <t>CERT002</t>
+  </si>
+  <si>
+    <t>CERT003</t>
+  </si>
+  <si>
+    <t>CERT004</t>
+  </si>
+  <si>
+    <t>CERT005</t>
+  </si>
+  <si>
+    <t>CERT006</t>
+  </si>
+  <si>
+    <t>CERT007</t>
+  </si>
+  <si>
+    <t>CERT008</t>
+  </si>
+  <si>
+    <t>CERT009</t>
+  </si>
+  <si>
+    <t>CERT010</t>
+  </si>
+  <si>
+    <t>CERT011</t>
+  </si>
+  <si>
+    <t>CERT012</t>
+  </si>
+  <si>
+    <t>CERT013</t>
+  </si>
+  <si>
+    <t>CERT014</t>
+  </si>
+  <si>
+    <t>CERT015</t>
+  </si>
+  <si>
+    <t>CERT016</t>
+  </si>
+  <si>
+    <t>CERT017</t>
+  </si>
+  <si>
+    <t>CERT018</t>
+  </si>
+  <si>
+    <t>CERT019</t>
+  </si>
+  <si>
+    <t>CERT020</t>
+  </si>
+  <si>
+    <t>CERT021</t>
+  </si>
+  <si>
+    <t>CERT022</t>
+  </si>
+  <si>
+    <t>CERT023</t>
+  </si>
+  <si>
+    <t>CERT024</t>
+  </si>
+  <si>
+    <t>CERT025</t>
+  </si>
+  <si>
+    <t>CERT026</t>
+  </si>
+  <si>
+    <t>CERT027</t>
+  </si>
+  <si>
+    <t>CERT028</t>
+  </si>
+  <si>
+    <t>CERT029</t>
+  </si>
+  <si>
+    <t>CERT030</t>
+  </si>
+  <si>
+    <t>CERT031</t>
+  </si>
+  <si>
+    <t>CERT032</t>
+  </si>
+  <si>
+    <t>CERT033</t>
+  </si>
+  <si>
+    <t>CERT034</t>
+  </si>
+  <si>
+    <t>CERT035</t>
+  </si>
+  <si>
+    <t>CERT036</t>
+  </si>
+  <si>
+    <t>CERT037</t>
+  </si>
+  <si>
+    <t>CERT038</t>
+  </si>
+  <si>
+    <t>CERT039</t>
+  </si>
+  <si>
+    <t>CERT040</t>
+  </si>
+  <si>
+    <t>CERT041</t>
+  </si>
+  <si>
+    <t>CERT042</t>
+  </si>
+  <si>
+    <t>CERT043</t>
+  </si>
+  <si>
+    <t>CERT044</t>
+  </si>
+  <si>
+    <t>CERT045</t>
+  </si>
+  <si>
+    <t>CERT046</t>
+  </si>
+  <si>
+    <t>CERT047</t>
+  </si>
+  <si>
+    <t>CERT048</t>
+  </si>
+  <si>
+    <t>CERT049</t>
+  </si>
+  <si>
+    <t>CERT050</t>
+  </si>
+  <si>
+    <t>CERT051</t>
+  </si>
+  <si>
+    <t>CERT052</t>
+  </si>
+  <si>
+    <t>CERT053</t>
+  </si>
+  <si>
+    <t>CERT054</t>
+  </si>
+  <si>
+    <t>CERT055</t>
+  </si>
+  <si>
+    <t>CERT056</t>
+  </si>
+  <si>
+    <t>CERT057</t>
+  </si>
+  <si>
+    <t>Sih</t>
+  </si>
+  <si>
+    <t>Domain</t>
   </si>
 </sst>
 </file>
@@ -466,16 +910,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66A226E-198B-46DC-9346-833B586E7D20}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.3125" customWidth="1"/>
-    <col min="2" max="3" width="21.9375" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="3" max="3" width="43.8125" customWidth="1"/>
     <col min="4" max="4" width="25.375" customWidth="1"/>
     <col min="5" max="5" width="20.4375" customWidth="1"/>
     <col min="6" max="6" width="18.25" customWidth="1"/>
@@ -483,300 +928,1162 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C14" si="0">CONCATENATE(B2,"@gmail.com")</f>
-        <v>Ramesh@gmail.com</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="E2" s="1">
-        <v>45292</v>
+        <v>45539</v>
       </c>
       <c r="F2" s="1">
-        <v>45352</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>Ritik@gmail.com</v>
+      <c r="C3" t="s">
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="E3" s="1">
-        <v>45352</v>
+        <v>45539</v>
       </c>
       <c r="F3" s="1">
-        <v>45413</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>vivek@gmail.com</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="E4" s="1">
-        <v>45047</v>
+        <v>45539</v>
       </c>
       <c r="F4" s="1">
-        <v>45109</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>Ritik@gmail.com</v>
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="E5" s="1">
-        <v>42530</v>
+        <v>45539</v>
       </c>
       <c r="F5" s="1">
-        <v>43386</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>Shubam@gmail.com</v>
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="E6" s="1">
-        <v>42882</v>
+        <v>45539</v>
       </c>
       <c r="F6" s="1">
-        <v>42996</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>shubam@gmail.com</v>
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="E7" s="1">
-        <v>41400</v>
+        <v>45539</v>
       </c>
       <c r="F7" s="1">
-        <v>42026</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="str">
-        <f>CONCATENATE(B8,"@gmail.com")</f>
-        <v>vivek@gmail.com</v>
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="E8" s="1">
-        <v>43460</v>
+        <v>45539</v>
       </c>
       <c r="F8" s="1">
-        <v>44098</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>vivek@gmail.com</v>
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="E9" s="1">
-        <v>41392</v>
+        <v>45539</v>
       </c>
       <c r="F9" s="1">
-        <v>42750</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>Ritik@gmail.com</v>
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="E10" s="1">
-        <v>41091</v>
+        <v>45539</v>
       </c>
       <c r="F10" s="1">
-        <v>42356</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>Ritik@gmail.com</v>
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="E11" s="1">
-        <v>40317</v>
+        <v>45539</v>
       </c>
       <c r="F11" s="1">
-        <v>42533</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>Ritik@gmail.com</v>
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="E12" s="1">
-        <v>43000</v>
+        <v>45539</v>
       </c>
       <c r="F12" s="1">
-        <v>43120</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>Ramesh@gmail.com</v>
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="E13" s="1">
-        <v>41601</v>
+        <v>45539</v>
       </c>
       <c r="F13" s="1">
-        <v>41833</v>
+        <v>45541</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F17" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F18" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F19" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F20" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F21" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F22" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F23" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F24" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F25" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>khushal@gmail.com</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1">
-        <v>41601</v>
-      </c>
-      <c r="F14" s="1">
-        <v>41833</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E16" t="s">
-        <v>27</v>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F26" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F27" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F28" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>176</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F29" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F30" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F31" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F32" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F33" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F34" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F36" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F37" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F38" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F39" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F40" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F41" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F42" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F43" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F44" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F45" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F46" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F47" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" t="s">
+        <v>176</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F48" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>176</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F49" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F50" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F51" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F52" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F53" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F54" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" t="s">
+        <v>176</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F55" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F56" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F57" s="1">
+        <v>45541</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45539</v>
+      </c>
+      <c r="F58" s="1">
+        <v>45541</v>
       </c>
     </row>
   </sheetData>
